--- a/FileBaoCao/PhacThao_Register.xlsx
+++ b/FileBaoCao/PhacThao_Register.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCHOOL\NAM5-HK1\PTTKDBCL-KTLTHDT\Electronic_Components_Website\FileBaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3788ADC8-A7CC-40D4-AAB4-F5F90DAC35B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC439A0-4067-426D-A15B-37E3822DFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3458795C-D8DB-45E8-B939-50797F97E678}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Tên hê thống</t>
   </si>
   <si>
-    <t>Tìm kiếm việc và người giúp việc</t>
-  </si>
-  <si>
     <t>Người tạo</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>Nhập liệu</t>
+  </si>
+  <si>
+    <t>Website bán linh kiện điển tử</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1280,6 +1280,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1307,9 +1338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1320,27 +1348,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,66 +1401,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,110 +1519,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4355,191 +4354,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5806F2-69F7-4EB2-9CBF-B6CC1DADE743}">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A57" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74:K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" customWidth="1"/>
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
     <col min="16" max="16" width="13.109375" customWidth="1"/>
+    <col min="28" max="28" width="12.21875" customWidth="1"/>
+    <col min="31" max="31" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="73" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77" t="s">
+      <c r="H1" s="86"/>
+      <c r="I1" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="68"/>
+      <c r="X1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="68"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="73"/>
-      <c r="X1" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" s="77" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="73"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="3" t="s">
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="3" t="s">
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="68"/>
+    </row>
+    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="3" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="72"/>
+      <c r="K3" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="73"/>
-    </row>
-    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78" t="s">
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80" t="s">
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="78" t="s">
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
     </row>
     <row r="4" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="S5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="21" x14ac:dyDescent="0.4">
       <c r="H13" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -4547,382 +4549,382 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:34" ht="21" x14ac:dyDescent="0.4">
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+    </row>
+    <row r="17" spans="7:33" ht="21" x14ac:dyDescent="0.4">
+      <c r="I17" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-    </row>
-    <row r="17" spans="7:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="I17" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
     </row>
     <row r="22" spans="7:33" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" t="s">
         <v>91</v>
-      </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="S22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="7:33" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" t="s">
         <v>93</v>
-      </c>
-      <c r="K23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="7:33" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" t="s">
         <v>95</v>
       </c>
-      <c r="K24" t="s">
+      <c r="S24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S24" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T24" s="24" t="s">
+      <c r="U24" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="U24" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
       <c r="Y24" s="24"/>
       <c r="Z24" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA24" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="87"/>
+        <v>35</v>
+      </c>
+      <c r="AA24" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="103"/>
+      <c r="AG24" s="103"/>
     </row>
     <row r="25" spans="7:33" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S25" s="14">
         <v>1</v>
       </c>
       <c r="T25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U25" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="U25" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA25" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="84"/>
+      <c r="AA25" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
     </row>
     <row r="26" spans="7:33" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S26" s="16">
         <v>2</v>
       </c>
       <c r="T26" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="U26" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="U26" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA26" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
+      <c r="AA26" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="104"/>
+      <c r="AF26" s="104"/>
+      <c r="AG26" s="104"/>
     </row>
     <row r="27" spans="7:33" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S27" s="16">
         <v>3</v>
       </c>
       <c r="T27" s="35"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
       <c r="Z27" s="35"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="89"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="100"/>
     </row>
     <row r="28" spans="7:33" x14ac:dyDescent="0.3">
       <c r="S28" s="16">
         <v>4</v>
       </c>
       <c r="T28" s="35"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
       <c r="Z28" s="35"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="89"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="89"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
     </row>
     <row r="29" spans="7:33" x14ac:dyDescent="0.3">
       <c r="S29" s="18">
         <v>5</v>
       </c>
       <c r="T29" s="25"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="99"/>
       <c r="Z29" s="25"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="99"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="73" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="75" t="s">
+      <c r="F33" s="68"/>
+      <c r="G33" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77" t="s">
+      <c r="H33" s="86"/>
+      <c r="I33" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="82" t="s">
+      <c r="N33" s="88"/>
+      <c r="O33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="83"/>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="77" t="s">
+      <c r="Q33" s="68"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="78"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="73"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="67"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="67"/>
+      <c r="Q34" s="68"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="73"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="78" t="s">
+      <c r="H35" s="70"/>
+      <c r="I35" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="79"/>
-      <c r="I35" s="80" t="s">
+      <c r="J35" s="72"/>
+      <c r="K35" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="81"/>
-      <c r="K35" s="78" t="s">
+      <c r="L35" s="70"/>
+      <c r="M35" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="79"/>
-      <c r="M35" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
     </row>
     <row r="36" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B40" s="95" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="92" t="s">
+      <c r="C40" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92" t="s">
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="95"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="98"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="92"/>
-      <c r="M40" s="94"/>
-      <c r="N40" s="94"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="36" t="s">
+      <c r="N41" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="N41" s="36" t="s">
+      <c r="O41" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B42" s="89">
+        <v>1</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="89"/>
+      <c r="E42" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="O41" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="P41" s="36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="97">
-        <v>1</v>
-      </c>
-      <c r="C42" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="101"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="93"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="102"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="37"/>
@@ -5297,158 +5299,217 @@
       <c r="P71" s="43"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="64"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="73" t="s">
+      <c r="A74" s="75"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="73" t="s">
+      <c r="E74" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F74" s="73"/>
-      <c r="G74" s="75" t="s">
+      <c r="F74" s="68"/>
+      <c r="G74" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="76"/>
-      <c r="I74" s="77" t="s">
+      <c r="H74" s="86"/>
+      <c r="I74" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="M74" s="82" t="s">
+      <c r="N74" s="88"/>
+      <c r="O74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N74" s="83"/>
-      <c r="O74" s="1" t="s">
+      <c r="P74" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="P74" s="77" t="s">
+      <c r="Q74" s="68"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="78"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q74" s="73"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="67"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="3" t="s">
+      <c r="M75" s="67"/>
+      <c r="N75" s="68"/>
+      <c r="O75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M75" s="77"/>
-      <c r="N75" s="73"/>
-      <c r="O75" s="3" t="s">
+      <c r="P75" s="67"/>
+      <c r="Q75" s="68"/>
+    </row>
+    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="81"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="P75" s="77"/>
-      <c r="Q75" s="73"/>
-    </row>
-    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="70"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="78" t="s">
+      <c r="H76" s="70"/>
+      <c r="I76" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="79"/>
-      <c r="I76" s="80" t="s">
+      <c r="J76" s="72"/>
+      <c r="K76" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J76" s="81"/>
-      <c r="K76" s="78" t="s">
+      <c r="L76" s="70"/>
+      <c r="M76" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L76" s="79"/>
-      <c r="M76" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="N76" s="81"/>
-      <c r="O76" s="81"/>
-      <c r="P76" s="81"/>
-      <c r="Q76" s="81"/>
+      <c r="N76" s="72"/>
+      <c r="O76" s="72"/>
+      <c r="P76" s="72"/>
+      <c r="Q76" s="72"/>
     </row>
     <row r="77" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B79" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B80" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:Q76"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AB2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="AA24:AG24"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="AA26:AG26"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="AA25:AG25"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="AA27:AG27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="AA28:AG28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="AA29:AG29"/>
+    <mergeCell ref="A33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:F35"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:K34"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:J41"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="M40:N40"/>
     <mergeCell ref="O42:O43"/>
     <mergeCell ref="P42:P43"/>
     <mergeCell ref="A74:C76"/>
@@ -5465,70 +5526,11 @@
     <mergeCell ref="K42:L43"/>
     <mergeCell ref="M42:M43"/>
     <mergeCell ref="N42:N43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:J41"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="AA29:AG29"/>
-    <mergeCell ref="A33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:F35"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:K34"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="AA27:AG27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="AA28:AG28"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="AA24:AG24"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="AA26:AG26"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="AA25:AG25"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AB2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:Q76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
@@ -5547,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4C410F-697E-423D-9877-C489C0289927}">
   <dimension ref="A1:AX133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F22" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AC71" sqref="AC71"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F127" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z105" sqref="Z105:AB106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5561,195 +5563,196 @@
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
     <col min="33" max="33" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="73" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="75" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77" t="s">
+      <c r="H1" s="86"/>
+      <c r="I1" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="68"/>
+      <c r="X1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="68"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="73"/>
-      <c r="X1" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD1" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" s="77" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="73"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="3" t="s">
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="3" t="s">
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="68"/>
+    </row>
+    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="3" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="72"/>
+      <c r="K3" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="73"/>
-    </row>
-    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78" t="s">
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80" t="s">
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="78" t="s">
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
     </row>
     <row r="4" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="135"/>
+        <v>13</v>
+      </c>
+      <c r="S5" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T6" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="T7" s="114" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T7" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T8" s="2"/>
@@ -5759,237 +5762,237 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T9" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="137" t="s">
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
+      <c r="AB10" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137" t="s">
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="AC10" s="137"/>
-      <c r="AD10" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE10" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF10" s="137"/>
-      <c r="AG10" s="137"/>
+      <c r="AE10" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="111"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T11" s="16">
         <v>1</v>
       </c>
-      <c r="U11" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88" t="s">
+      <c r="U11" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="100"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T12" s="16">
         <v>2</v>
       </c>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88" t="s">
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
+      <c r="AE12" s="100"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="100"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T13" s="35">
         <v>3</v>
       </c>
-      <c r="U13" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88" t="s">
+      <c r="U13" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="119"/>
+      <c r="AE13" s="125"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="127"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T14" s="35">
         <v>4</v>
       </c>
-      <c r="U14" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88" t="s">
+      <c r="U14" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE14" s="117"/>
-      <c r="AF14" s="118"/>
-      <c r="AG14" s="119"/>
+      <c r="AE14" s="125"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="127"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T15" s="35">
         <v>5</v>
       </c>
-      <c r="U15" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="88" t="s">
+      <c r="U15" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AC15" s="88"/>
-      <c r="AD15" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="119"/>
+      <c r="AE15" s="125"/>
+      <c r="AF15" s="126"/>
+      <c r="AG15" s="127"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T16" s="25">
         <v>6</v>
       </c>
-      <c r="U16" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="V16" s="125"/>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="125" t="s">
+      <c r="U16" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AC16" s="125"/>
-      <c r="AD16" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE16" s="120"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="122"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="137"/>
     </row>
     <row r="18" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="U19" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87" t="s">
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87" t="s">
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE19" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
+      <c r="AE19" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="103"/>
     </row>
     <row r="20" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T20" s="14">
         <v>1</v>
       </c>
       <c r="U20" s="138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V20" s="138"/>
       <c r="W20" s="138"/>
       <c r="X20" s="138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y20" s="138"/>
       <c r="Z20" s="138"/>
@@ -5997,7 +6000,7 @@
       <c r="AB20" s="138"/>
       <c r="AC20" s="138"/>
       <c r="AD20" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE20" s="138"/>
       <c r="AF20" s="138"/>
@@ -6007,145 +6010,145 @@
       <c r="T21" s="16">
         <v>2</v>
       </c>
-      <c r="U21" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="88"/>
+      <c r="U21" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
       <c r="AD21" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="88"/>
+        <v>65</v>
+      </c>
+      <c r="AE21" s="104"/>
+      <c r="AF21" s="104"/>
+      <c r="AG21" s="104"/>
     </row>
     <row r="22" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T22" s="16">
         <v>3</v>
       </c>
-      <c r="U22" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="116"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="119"/>
+      <c r="U22" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="V22" s="123"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="127"/>
       <c r="AD22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="118"/>
-      <c r="AG22" s="119"/>
+        <v>65</v>
+      </c>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="126"/>
+      <c r="AG22" s="127"/>
     </row>
     <row r="23" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T23" s="16">
         <v>4</v>
       </c>
-      <c r="U23" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="V23" s="116"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="119"/>
+      <c r="U23" s="122" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" s="123"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="122" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y23" s="123"/>
+      <c r="Z23" s="123"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="127"/>
       <c r="AD23" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE23" s="117"/>
-      <c r="AF23" s="118"/>
-      <c r="AG23" s="119"/>
+        <v>65</v>
+      </c>
+      <c r="AE23" s="125"/>
+      <c r="AF23" s="126"/>
+      <c r="AG23" s="127"/>
     </row>
     <row r="24" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T24" s="16">
         <v>5</v>
       </c>
-      <c r="U24" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="V24" s="116"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="119"/>
+      <c r="U24" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="V24" s="123"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y24" s="123"/>
+      <c r="Z24" s="123"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="125"/>
+      <c r="AC24" s="127"/>
       <c r="AD24" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="118"/>
-      <c r="AG24" s="119"/>
+        <v>65</v>
+      </c>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="126"/>
+      <c r="AG24" s="127"/>
     </row>
     <row r="25" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T25" s="16">
         <v>6</v>
       </c>
-      <c r="U25" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="V25" s="116"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y25" s="116"/>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="119"/>
+      <c r="U25" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="V25" s="123"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y25" s="123"/>
+      <c r="Z25" s="123"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="127"/>
       <c r="AD25" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="118"/>
-      <c r="AG25" s="119"/>
+        <v>65</v>
+      </c>
+      <c r="AE25" s="125"/>
+      <c r="AF25" s="126"/>
+      <c r="AG25" s="127"/>
     </row>
     <row r="26" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T26" s="18">
         <v>7</v>
       </c>
-      <c r="U26" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="V26" s="109"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y26" s="109"/>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="120"/>
-      <c r="AC26" s="122"/>
+      <c r="U26" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="V26" s="134"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y26" s="134"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="136"/>
+      <c r="AC26" s="137"/>
       <c r="AD26" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE26" s="120"/>
-      <c r="AF26" s="121"/>
-      <c r="AG26" s="122"/>
+        <v>65</v>
+      </c>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="137"/>
     </row>
     <row r="27" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T27" s="2"/>
@@ -6173,12 +6176,12 @@
     </row>
     <row r="30" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T30" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T31" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U31" s="22"/>
       <c r="V31" s="22"/>
@@ -6187,60 +6190,60 @@
     </row>
     <row r="32" spans="20:33" x14ac:dyDescent="0.3">
       <c r="T32" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U32" s="22"/>
     </row>
     <row r="33" spans="2:50" x14ac:dyDescent="0.3">
       <c r="T33" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
     <row r="34" spans="2:50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="U34" s="123" t="s">
-        <v>32</v>
-      </c>
-      <c r="V34" s="123"/>
-      <c r="W34" s="123" t="s">
+      <c r="V34" s="140"/>
+      <c r="W34" s="140" t="s">
+        <v>70</v>
+      </c>
+      <c r="X34" s="140"/>
+      <c r="Y34" s="140"/>
+      <c r="Z34" s="140"/>
+      <c r="AA34" s="140"/>
+      <c r="AB34" s="140"/>
+      <c r="AC34" s="140"/>
+      <c r="AD34" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="X34" s="123"/>
-      <c r="Y34" s="123"/>
-      <c r="Z34" s="123"/>
-      <c r="AA34" s="123"/>
-      <c r="AB34" s="123"/>
-      <c r="AC34" s="123"/>
-      <c r="AD34" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE34" s="123"/>
-      <c r="AF34" s="123"/>
-      <c r="AG34" s="123"/>
+      <c r="AE34" s="140"/>
+      <c r="AF34" s="140"/>
+      <c r="AG34" s="140"/>
     </row>
     <row r="35" spans="2:50" x14ac:dyDescent="0.3">
       <c r="T35" s="35">
         <v>1</v>
       </c>
-      <c r="U35" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="V35" s="104"/>
-      <c r="W35" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="X35" s="124"/>
-      <c r="Y35" s="124"/>
-      <c r="Z35" s="124"/>
-      <c r="AA35" s="124"/>
-      <c r="AB35" s="124"/>
-      <c r="AC35" s="124"/>
+      <c r="U35" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="V35" s="124"/>
+      <c r="W35" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="130"/>
+      <c r="Z35" s="130"/>
+      <c r="AA35" s="130"/>
+      <c r="AB35" s="130"/>
+      <c r="AC35" s="130"/>
       <c r="AD35" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE35" s="35"/>
       <c r="AF35" s="35"/>
@@ -6250,21 +6253,21 @@
       <c r="T36" s="35">
         <v>2</v>
       </c>
-      <c r="U36" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="V36" s="104"/>
-      <c r="W36" s="124" t="s">
+      <c r="U36" s="122" t="s">
+        <v>63</v>
+      </c>
+      <c r="V36" s="124"/>
+      <c r="W36" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="X36" s="130"/>
+      <c r="Y36" s="130"/>
+      <c r="Z36" s="130"/>
+      <c r="AA36" s="130"/>
+      <c r="AB36" s="130"/>
+      <c r="AC36" s="130"/>
+      <c r="AD36" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="X36" s="124"/>
-      <c r="Y36" s="124"/>
-      <c r="Z36" s="124"/>
-      <c r="AA36" s="124"/>
-      <c r="AB36" s="124"/>
-      <c r="AC36" s="124"/>
-      <c r="AD36" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="AE36" s="35"/>
       <c r="AF36" s="35"/>
@@ -6274,21 +6277,21 @@
       <c r="T37" s="35">
         <v>3</v>
       </c>
-      <c r="U37" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="V37" s="104"/>
-      <c r="W37" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="X37" s="124"/>
-      <c r="Y37" s="124"/>
-      <c r="Z37" s="124"/>
-      <c r="AA37" s="124"/>
-      <c r="AB37" s="124"/>
-      <c r="AC37" s="124"/>
+      <c r="U37" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="V37" s="124"/>
+      <c r="W37" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="X37" s="130"/>
+      <c r="Y37" s="130"/>
+      <c r="Z37" s="130"/>
+      <c r="AA37" s="130"/>
+      <c r="AB37" s="130"/>
+      <c r="AC37" s="130"/>
       <c r="AD37" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE37" s="35"/>
       <c r="AF37" s="35"/>
@@ -6299,20 +6302,20 @@
         <v>4</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V38" s="17"/>
-      <c r="W38" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="X38" s="124"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="124"/>
+      <c r="W38" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="X38" s="130"/>
+      <c r="Y38" s="130"/>
+      <c r="Z38" s="130"/>
+      <c r="AA38" s="130"/>
+      <c r="AB38" s="130"/>
+      <c r="AC38" s="130"/>
       <c r="AD38" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE38" s="35"/>
       <c r="AF38" s="35"/>
@@ -6323,20 +6326,20 @@
         <v>5</v>
       </c>
       <c r="U39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V39" s="27"/>
-      <c r="W39" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="X39" s="124"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="124"/>
-      <c r="AA39" s="124"/>
-      <c r="AB39" s="124"/>
-      <c r="AC39" s="124"/>
+      <c r="W39" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="X39" s="130"/>
+      <c r="Y39" s="130"/>
+      <c r="Z39" s="130"/>
+      <c r="AA39" s="130"/>
+      <c r="AB39" s="130"/>
+      <c r="AC39" s="130"/>
       <c r="AD39" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE39" s="28"/>
       <c r="AF39" s="28"/>
@@ -6347,20 +6350,20 @@
         <v>6</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V40" s="17"/>
-      <c r="W40" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="X40" s="124"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="124"/>
+      <c r="W40" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="X40" s="130"/>
+      <c r="Y40" s="130"/>
+      <c r="Z40" s="130"/>
+      <c r="AA40" s="130"/>
+      <c r="AB40" s="130"/>
+      <c r="AC40" s="130"/>
       <c r="AD40" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE40" s="35"/>
       <c r="AF40" s="35"/>
@@ -6387,21 +6390,21 @@
       <c r="T41" s="35">
         <v>7</v>
       </c>
-      <c r="U41" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="V41" s="104"/>
-      <c r="W41" s="124" t="s">
-        <v>133</v>
-      </c>
-      <c r="X41" s="124"/>
-      <c r="Y41" s="124"/>
-      <c r="Z41" s="124"/>
-      <c r="AA41" s="124"/>
-      <c r="AB41" s="124"/>
-      <c r="AC41" s="124"/>
+      <c r="U41" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="V41" s="124"/>
+      <c r="W41" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="X41" s="130"/>
+      <c r="Y41" s="130"/>
+      <c r="Z41" s="130"/>
+      <c r="AA41" s="130"/>
+      <c r="AB41" s="130"/>
+      <c r="AC41" s="130"/>
       <c r="AD41" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AE41" s="35"/>
       <c r="AF41" s="35"/>
@@ -6445,21 +6448,21 @@
       <c r="T42" s="35">
         <v>8</v>
       </c>
-      <c r="U42" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="V42" s="104"/>
-      <c r="W42" s="124" t="s">
+      <c r="U42" s="122" t="s">
+        <v>63</v>
+      </c>
+      <c r="V42" s="124"/>
+      <c r="W42" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="X42" s="130"/>
+      <c r="Y42" s="130"/>
+      <c r="Z42" s="130"/>
+      <c r="AA42" s="130"/>
+      <c r="AB42" s="130"/>
+      <c r="AC42" s="130"/>
+      <c r="AD42" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="X42" s="124"/>
-      <c r="Y42" s="124"/>
-      <c r="Z42" s="124"/>
-      <c r="AA42" s="124"/>
-      <c r="AB42" s="124"/>
-      <c r="AC42" s="124"/>
-      <c r="AD42" s="28" t="s">
-        <v>77</v>
       </c>
       <c r="AE42" s="35"/>
       <c r="AF42" s="35"/>
@@ -6504,20 +6507,20 @@
         <v>9</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V43" s="17"/>
-      <c r="W43" s="124" t="s">
-        <v>134</v>
-      </c>
-      <c r="X43" s="124"/>
-      <c r="Y43" s="124"/>
-      <c r="Z43" s="124"/>
-      <c r="AA43" s="124"/>
-      <c r="AB43" s="124"/>
-      <c r="AC43" s="124"/>
+      <c r="W43" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="X43" s="130"/>
+      <c r="Y43" s="130"/>
+      <c r="Z43" s="130"/>
+      <c r="AA43" s="130"/>
+      <c r="AB43" s="130"/>
+      <c r="AC43" s="130"/>
       <c r="AD43" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE43" s="35"/>
       <c r="AF43" s="35"/>
@@ -6562,20 +6565,20 @@
         <v>10</v>
       </c>
       <c r="U44" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V44" s="27"/>
-      <c r="W44" s="128" t="s">
+      <c r="W44" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="X44" s="131"/>
+      <c r="Y44" s="131"/>
+      <c r="Z44" s="131"/>
+      <c r="AA44" s="131"/>
+      <c r="AB44" s="131"/>
+      <c r="AC44" s="131"/>
+      <c r="AD44" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="X44" s="128"/>
-      <c r="Y44" s="128"/>
-      <c r="Z44" s="128"/>
-      <c r="AA44" s="128"/>
-      <c r="AB44" s="128"/>
-      <c r="AC44" s="128"/>
-      <c r="AD44" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="AE44" s="35"/>
       <c r="AF44" s="35"/>
@@ -6616,28 +6619,28 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
-      <c r="T45" s="147">
+      <c r="T45" s="64">
         <v>11</v>
       </c>
-      <c r="U45" s="148" t="s">
+      <c r="U45" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="V45" s="65"/>
+      <c r="W45" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="V45" s="148"/>
-      <c r="W45" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="X45" s="149"/>
-      <c r="Y45" s="149"/>
-      <c r="Z45" s="149"/>
-      <c r="AA45" s="149"/>
-      <c r="AB45" s="149"/>
-      <c r="AC45" s="149"/>
-      <c r="AD45" s="150" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE45" s="147"/>
-      <c r="AF45" s="147"/>
-      <c r="AG45" s="147"/>
+      <c r="X45" s="132"/>
+      <c r="Y45" s="132"/>
+      <c r="Z45" s="132"/>
+      <c r="AA45" s="132"/>
+      <c r="AB45" s="132"/>
+      <c r="AC45" s="132"/>
+      <c r="AD45" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE45" s="64"/>
+      <c r="AF45" s="64"/>
+      <c r="AG45" s="64"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
@@ -6674,24 +6677,24 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
-      <c r="T46" s="151">
+      <c r="T46" s="25">
         <v>12</v>
       </c>
-      <c r="U46" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="V46" s="122"/>
-      <c r="W46" s="108" t="s">
+      <c r="U46" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="V46" s="137"/>
+      <c r="W46" s="133" t="s">
+        <v>160</v>
+      </c>
+      <c r="X46" s="134"/>
+      <c r="Y46" s="134"/>
+      <c r="Z46" s="134"/>
+      <c r="AA46" s="134"/>
+      <c r="AB46" s="134"/>
+      <c r="AC46" s="135"/>
+      <c r="AD46" s="29" t="s">
         <v>161</v>
-      </c>
-      <c r="X46" s="109"/>
-      <c r="Y46" s="109"/>
-      <c r="Z46" s="109"/>
-      <c r="AA46" s="109"/>
-      <c r="AB46" s="109"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="29" t="s">
-        <v>162</v>
       </c>
       <c r="AE46" s="25"/>
       <c r="AF46" s="25"/>
@@ -6807,13 +6810,13 @@
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
       <c r="V49" s="12"/>
-      <c r="W49" s="126"/>
-      <c r="X49" s="126"/>
-      <c r="Y49" s="126"/>
-      <c r="Z49" s="126"/>
-      <c r="AA49" s="126"/>
-      <c r="AB49" s="126"/>
-      <c r="AC49" s="126"/>
+      <c r="W49" s="149"/>
+      <c r="X49" s="149"/>
+      <c r="Y49" s="149"/>
+      <c r="Z49" s="149"/>
+      <c r="AA49" s="149"/>
+      <c r="AB49" s="149"/>
+      <c r="AC49" s="149"/>
       <c r="AD49" s="63"/>
       <c r="AE49" s="63"/>
       <c r="AF49" s="63"/>
@@ -6857,13 +6860,13 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
-      <c r="W50" s="126"/>
-      <c r="X50" s="126"/>
-      <c r="Y50" s="126"/>
-      <c r="Z50" s="126"/>
-      <c r="AA50" s="126"/>
-      <c r="AB50" s="126"/>
-      <c r="AC50" s="126"/>
+      <c r="W50" s="149"/>
+      <c r="X50" s="149"/>
+      <c r="Y50" s="149"/>
+      <c r="Z50" s="149"/>
+      <c r="AA50" s="149"/>
+      <c r="AB50" s="149"/>
+      <c r="AC50" s="149"/>
       <c r="AD50" s="63"/>
       <c r="AE50" s="63"/>
       <c r="AF50" s="63"/>
@@ -6907,13 +6910,13 @@
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
       <c r="V51" s="12"/>
-      <c r="W51" s="126"/>
-      <c r="X51" s="126"/>
-      <c r="Y51" s="126"/>
-      <c r="Z51" s="126"/>
-      <c r="AA51" s="126"/>
-      <c r="AB51" s="126"/>
-      <c r="AC51" s="126"/>
+      <c r="W51" s="149"/>
+      <c r="X51" s="149"/>
+      <c r="Y51" s="149"/>
+      <c r="Z51" s="149"/>
+      <c r="AA51" s="149"/>
+      <c r="AB51" s="149"/>
+      <c r="AC51" s="149"/>
       <c r="AD51" s="63"/>
       <c r="AE51" s="63"/>
       <c r="AF51" s="63"/>
@@ -6958,13 +6961,13 @@
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
       <c r="V52" s="12"/>
-      <c r="W52" s="127"/>
-      <c r="X52" s="127"/>
-      <c r="Y52" s="127"/>
-      <c r="Z52" s="127"/>
-      <c r="AA52" s="127"/>
-      <c r="AB52" s="127"/>
-      <c r="AC52" s="127"/>
+      <c r="W52" s="150"/>
+      <c r="X52" s="150"/>
+      <c r="Y52" s="150"/>
+      <c r="Z52" s="150"/>
+      <c r="AA52" s="150"/>
+      <c r="AB52" s="150"/>
+      <c r="AC52" s="150"/>
       <c r="AD52" s="63"/>
       <c r="AE52" s="63"/>
       <c r="AF52" s="63"/>
@@ -7090,72 +7093,72 @@
       <c r="AX54" s="6"/>
     </row>
     <row r="55" spans="1:50" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="64"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="73" t="s">
+      <c r="A55" s="75"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="73" t="s">
+      <c r="E55" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="75" t="s">
+      <c r="F55" s="68"/>
+      <c r="G55" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="76"/>
-      <c r="I55" s="77" t="s">
+      <c r="H55" s="86"/>
+      <c r="I55" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="M55" s="82" t="s">
+      <c r="N55" s="88"/>
+      <c r="O55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N55" s="83"/>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="P55" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="64"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="66"/>
-      <c r="U55" s="73" t="s">
+      <c r="Q55" s="68"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="V55" s="73" t="s">
+      <c r="V55" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="W55" s="73"/>
-      <c r="X55" s="75" t="s">
+      <c r="W55" s="68"/>
+      <c r="X55" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="Y55" s="76"/>
-      <c r="Z55" s="77" t="s">
+      <c r="Y55" s="86"/>
+      <c r="Z55" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA55" s="68"/>
+      <c r="AB55" s="68"/>
+      <c r="AC55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA55" s="73"/>
-      <c r="AB55" s="73"/>
-      <c r="AC55" s="1" t="s">
+      <c r="AD55" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AD55" s="82" t="s">
+      <c r="AE55" s="88"/>
+      <c r="AF55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE55" s="83"/>
-      <c r="AF55" s="1" t="s">
+      <c r="AG55" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AG55" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH55" s="73"/>
+      <c r="AH55" s="68"/>
       <c r="AI55" s="8"/>
       <c r="AJ55" s="8"/>
       <c r="AK55" s="8"/>
@@ -7174,48 +7177,48 @@
       <c r="AX55" s="6"/>
     </row>
     <row r="56" spans="1:50" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
       <c r="L56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="67"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M56" s="77"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P56" s="77"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="67"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="69"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="73"/>
-      <c r="X56" s="75"/>
-      <c r="Y56" s="76"/>
-      <c r="Z56" s="77"/>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="73"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="78"/>
+      <c r="S56" s="79"/>
+      <c r="T56" s="80"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="85"/>
+      <c r="Y56" s="86"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="68"/>
+      <c r="AB56" s="68"/>
       <c r="AC56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD56" s="67"/>
+      <c r="AE56" s="68"/>
+      <c r="AF56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD56" s="77"/>
-      <c r="AE56" s="73"/>
-      <c r="AF56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG56" s="77"/>
-      <c r="AH56" s="73"/>
+      <c r="AG56" s="67"/>
+      <c r="AH56" s="68"/>
       <c r="AI56" s="8"/>
       <c r="AJ56" s="8"/>
       <c r="AK56" s="8"/>
@@ -7234,56 +7237,56 @@
       <c r="AX56" s="6"/>
     </row>
     <row r="57" spans="1:50" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="70"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="78" t="s">
+      <c r="A57" s="81"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="70"/>
+      <c r="I57" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="79"/>
-      <c r="I57" s="80" t="s">
+      <c r="J57" s="72"/>
+      <c r="K57" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J57" s="81"/>
-      <c r="K57" s="78" t="s">
+      <c r="L57" s="70"/>
+      <c r="M57" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L57" s="79"/>
-      <c r="M57" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="70"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="74"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
-      <c r="X57" s="78" t="s">
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="81"/>
+      <c r="S57" s="82"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="84"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
+      <c r="X57" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y57" s="70"/>
+      <c r="Z57" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="Y57" s="79"/>
-      <c r="Z57" s="80" t="s">
+      <c r="AA57" s="72"/>
+      <c r="AB57" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AA57" s="81"/>
-      <c r="AB57" s="78" t="s">
+      <c r="AC57" s="70"/>
+      <c r="AD57" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="AC57" s="79"/>
-      <c r="AD57" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE57" s="81"/>
-      <c r="AF57" s="81"/>
-      <c r="AG57" s="81"/>
-      <c r="AH57" s="81"/>
+      <c r="AE57" s="72"/>
+      <c r="AF57" s="72"/>
+      <c r="AG57" s="72"/>
+      <c r="AH57" s="72"/>
       <c r="AI57" s="8"/>
       <c r="AJ57" s="8"/>
       <c r="AK57" s="8"/>
@@ -7406,7 +7409,7 @@
     </row>
     <row r="60" spans="1:50" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -7423,10 +7426,10 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
-      <c r="T60" s="136" t="s">
-        <v>153</v>
-      </c>
-      <c r="U60" s="136"/>
+      <c r="T60" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="U60" s="114"/>
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
       <c r="AJ60" s="8"/>
@@ -7446,10 +7449,10 @@
       <c r="AX60" s="6"/>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="B61" s="129" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="129"/>
+      <c r="B61" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="128"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -7465,24 +7468,24 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-      <c r="T61" s="141" t="s">
-        <v>80</v>
-      </c>
-      <c r="U61" s="141"/>
-      <c r="V61" s="141"/>
-      <c r="W61" s="141" t="s">
-        <v>163</v>
-      </c>
-      <c r="X61" s="141"/>
-      <c r="Y61" s="141"/>
-      <c r="Z61" s="141"/>
-      <c r="AA61" s="141"/>
-      <c r="AB61" s="141"/>
-      <c r="AC61" s="141"/>
-      <c r="AD61" s="141"/>
-      <c r="AE61" s="141"/>
-      <c r="AF61" s="141"/>
-      <c r="AG61" s="141"/>
+      <c r="T61" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="U61" s="115"/>
+      <c r="V61" s="115"/>
+      <c r="W61" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="X61" s="115"/>
+      <c r="Y61" s="115"/>
+      <c r="Z61" s="115"/>
+      <c r="AA61" s="115"/>
+      <c r="AB61" s="115"/>
+      <c r="AC61" s="115"/>
+      <c r="AD61" s="115"/>
+      <c r="AE61" s="115"/>
+      <c r="AF61" s="115"/>
+      <c r="AG61" s="115"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
@@ -7502,61 +7505,61 @@
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B62" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="130" t="s">
+      <c r="D62" s="129"/>
+      <c r="E62" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130" t="s">
+      <c r="F62" s="129"/>
+      <c r="G62" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F62" s="130"/>
-      <c r="G62" s="49" t="s">
+      <c r="H62" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H62" s="49" t="s">
+      <c r="I62" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I62" s="49" t="s">
+      <c r="J62" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="J62" s="49" t="s">
+      <c r="K62" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="K62" s="130" t="s">
+      <c r="L62" s="129"/>
+      <c r="M62" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="L62" s="130"/>
-      <c r="M62" s="130" t="s">
-        <v>39</v>
-      </c>
-      <c r="N62" s="130"/>
-      <c r="O62" s="130"/>
-      <c r="P62" s="130"/>
+      <c r="N62" s="129"/>
+      <c r="O62" s="129"/>
+      <c r="P62" s="129"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
-      <c r="T62" s="111" t="s">
+      <c r="T62" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="U62" s="144"/>
+      <c r="V62" s="144"/>
+      <c r="W62" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="X62" s="104"/>
+      <c r="Y62" s="104"/>
+      <c r="Z62" s="104"/>
+      <c r="AA62" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="U62" s="111"/>
-      <c r="V62" s="111"/>
-      <c r="W62" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
-      <c r="AA62" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB62" s="88"/>
-      <c r="AC62" s="88"/>
-      <c r="AD62" s="88"/>
-      <c r="AE62" s="88"/>
-      <c r="AF62" s="88"/>
-      <c r="AG62" s="88"/>
+      <c r="AB62" s="104"/>
+      <c r="AC62" s="104"/>
+      <c r="AD62" s="104"/>
+      <c r="AE62" s="104"/>
+      <c r="AF62" s="104"/>
+      <c r="AG62" s="104"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
@@ -7578,53 +7581,53 @@
       <c r="B63" s="16">
         <v>1</v>
       </c>
-      <c r="C63" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="88"/>
-      <c r="E63" s="89" t="s">
+      <c r="C63" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="104"/>
+      <c r="E63" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="100"/>
+      <c r="G63" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="89"/>
-      <c r="G63" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H63" s="16" t="s">
+      <c r="I63" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="16" t="s">
+      <c r="J63" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J63" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="88"/>
-      <c r="P63" s="88"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="111"/>
-      <c r="U63" s="111"/>
-      <c r="V63" s="111"/>
-      <c r="W63" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="X63" s="142"/>
-      <c r="Y63" s="142"/>
-      <c r="Z63" s="142"/>
-      <c r="AA63" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB63" s="88"/>
-      <c r="AC63" s="88"/>
-      <c r="AD63" s="88"/>
-      <c r="AE63" s="88"/>
-      <c r="AF63" s="88"/>
-      <c r="AG63" s="88"/>
+      <c r="T63" s="144"/>
+      <c r="U63" s="144"/>
+      <c r="V63" s="144"/>
+      <c r="W63" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="X63" s="116"/>
+      <c r="Y63" s="116"/>
+      <c r="Z63" s="116"/>
+      <c r="AA63" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB63" s="104"/>
+      <c r="AC63" s="104"/>
+      <c r="AD63" s="104"/>
+      <c r="AE63" s="104"/>
+      <c r="AF63" s="104"/>
+      <c r="AG63" s="104"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
@@ -7646,54 +7649,54 @@
       <c r="B64" s="16">
         <v>2</v>
       </c>
-      <c r="C64" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="88"/>
-      <c r="E64" s="89" t="s">
+      <c r="C64" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="104"/>
+      <c r="E64" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="100"/>
+      <c r="G64" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H64" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="89"/>
-      <c r="G64" s="16" t="s">
+      <c r="I64" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64" s="100"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="H64" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="N64" s="88"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="88"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="104"/>
+      <c r="P64" s="104"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="111"/>
-      <c r="U64" s="111"/>
-      <c r="V64" s="111"/>
-      <c r="W64" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="X64" s="114"/>
-      <c r="Y64" s="114"/>
-      <c r="Z64" s="115"/>
-      <c r="AA64" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB64" s="88"/>
-      <c r="AC64" s="88"/>
-      <c r="AD64" s="88"/>
-      <c r="AE64" s="88"/>
-      <c r="AF64" s="88"/>
-      <c r="AG64" s="88"/>
+      <c r="T64" s="144"/>
+      <c r="U64" s="144"/>
+      <c r="V64" s="144"/>
+      <c r="W64" s="146" t="s">
+        <v>154</v>
+      </c>
+      <c r="X64" s="147"/>
+      <c r="Y64" s="147"/>
+      <c r="Z64" s="148"/>
+      <c r="AA64" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB64" s="104"/>
+      <c r="AC64" s="104"/>
+      <c r="AD64" s="104"/>
+      <c r="AE64" s="104"/>
+      <c r="AF64" s="104"/>
+      <c r="AG64" s="104"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
@@ -7715,52 +7718,52 @@
       <c r="B65" s="16">
         <v>3</v>
       </c>
-      <c r="C65" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="88"/>
-      <c r="E65" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="89"/>
+      <c r="C65" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="104"/>
+      <c r="E65" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="100"/>
       <c r="G65" s="16"/>
       <c r="H65" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="16" t="s">
+      <c r="J65" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J65" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K65" s="89"/>
-      <c r="L65" s="89"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="88"/>
+      <c r="K65" s="100"/>
+      <c r="L65" s="100"/>
+      <c r="M65" s="104"/>
+      <c r="N65" s="104"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="104"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="U65" s="111"/>
-      <c r="V65" s="111"/>
-      <c r="W65" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="X65" s="114"/>
-      <c r="Y65" s="114"/>
-      <c r="Z65" s="115"/>
-      <c r="AA65" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB65" s="116"/>
-      <c r="AC65" s="116"/>
-      <c r="AD65" s="116"/>
-      <c r="AE65" s="116"/>
-      <c r="AF65" s="116"/>
-      <c r="AG65" s="104"/>
+      <c r="T65" s="144" t="s">
+        <v>144</v>
+      </c>
+      <c r="U65" s="144"/>
+      <c r="V65" s="144"/>
+      <c r="W65" s="146" t="s">
+        <v>151</v>
+      </c>
+      <c r="X65" s="147"/>
+      <c r="Y65" s="147"/>
+      <c r="Z65" s="148"/>
+      <c r="AA65" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB65" s="123"/>
+      <c r="AC65" s="123"/>
+      <c r="AD65" s="123"/>
+      <c r="AE65" s="123"/>
+      <c r="AF65" s="123"/>
+      <c r="AG65" s="124"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
@@ -7782,54 +7785,54 @@
       <c r="B66" s="16">
         <v>4</v>
       </c>
-      <c r="C66" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="88"/>
-      <c r="E66" s="89" t="s">
+      <c r="C66" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="104"/>
+      <c r="E66" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="100"/>
+      <c r="G66" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="89"/>
-      <c r="G66" s="50" t="s">
+      <c r="I66" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K66" s="100"/>
+      <c r="L66" s="100"/>
+      <c r="M66" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="H66" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K66" s="89"/>
-      <c r="L66" s="89"/>
-      <c r="M66" s="145" t="s">
-        <v>118</v>
-      </c>
-      <c r="N66" s="145"/>
-      <c r="O66" s="145"/>
-      <c r="P66" s="145"/>
+      <c r="N66" s="110"/>
+      <c r="O66" s="110"/>
+      <c r="P66" s="110"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
-      <c r="T66" s="112"/>
-      <c r="U66" s="112"/>
-      <c r="V66" s="112"/>
-      <c r="W66" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="X66" s="106"/>
-      <c r="Y66" s="106"/>
-      <c r="Z66" s="107"/>
-      <c r="AA66" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB66" s="109"/>
-      <c r="AC66" s="109"/>
-      <c r="AD66" s="109"/>
-      <c r="AE66" s="109"/>
-      <c r="AF66" s="109"/>
-      <c r="AG66" s="110"/>
+      <c r="T66" s="145"/>
+      <c r="U66" s="145"/>
+      <c r="V66" s="145"/>
+      <c r="W66" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="X66" s="142"/>
+      <c r="Y66" s="142"/>
+      <c r="Z66" s="143"/>
+      <c r="AA66" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB66" s="134"/>
+      <c r="AC66" s="134"/>
+      <c r="AD66" s="134"/>
+      <c r="AE66" s="134"/>
+      <c r="AF66" s="134"/>
+      <c r="AG66" s="135"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
@@ -7851,36 +7854,36 @@
       <c r="B67" s="16">
         <v>5</v>
       </c>
-      <c r="C67" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="88"/>
-      <c r="E67" s="89" t="s">
+      <c r="C67" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="104"/>
+      <c r="E67" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="100"/>
+      <c r="G67" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H67" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="89"/>
-      <c r="G67" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H67" s="16" t="s">
+      <c r="I67" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="16" t="s">
+      <c r="J67" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J67" s="16" t="s">
+      <c r="K67" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="89" t="s">
+      <c r="L67" s="100"/>
+      <c r="M67" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="L67" s="89"/>
-      <c r="M67" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
+      <c r="P67" s="104"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="AH67" s="2"/>
@@ -7904,36 +7907,36 @@
       <c r="B68" s="18">
         <v>6</v>
       </c>
-      <c r="C68" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="125"/>
-      <c r="E68" s="90" t="s">
+      <c r="C68" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="106"/>
+      <c r="E68" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" s="99"/>
+      <c r="G68" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="90"/>
-      <c r="G68" s="18" t="s">
+      <c r="I68" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="L68" s="99"/>
+      <c r="M68" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="H68" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I68" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J68" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K68" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="L68" s="90"/>
-      <c r="M68" s="125" t="s">
-        <v>120</v>
-      </c>
-      <c r="N68" s="125"/>
-      <c r="O68" s="125"/>
-      <c r="P68" s="125"/>
+      <c r="N68" s="106"/>
+      <c r="O68" s="106"/>
+      <c r="P68" s="106"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="AH68" s="2"/>
@@ -8016,26 +8019,26 @@
     <row r="72" spans="2:49" x14ac:dyDescent="0.3">
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
-      <c r="T72" s="137" t="s">
+      <c r="T72" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="U72" s="111"/>
+      <c r="V72" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="U72" s="137"/>
-      <c r="V72" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="W72" s="137"/>
-      <c r="X72" s="137"/>
-      <c r="Y72" s="137"/>
-      <c r="Z72" s="137"/>
-      <c r="AA72" s="137"/>
-      <c r="AB72" s="137"/>
-      <c r="AC72" s="137"/>
-      <c r="AD72" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE72" s="137"/>
-      <c r="AF72" s="137"/>
-      <c r="AG72" s="137"/>
+      <c r="W72" s="111"/>
+      <c r="X72" s="111"/>
+      <c r="Y72" s="111"/>
+      <c r="Z72" s="111"/>
+      <c r="AA72" s="111"/>
+      <c r="AB72" s="111"/>
+      <c r="AC72" s="111"/>
+      <c r="AD72" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE72" s="111"/>
+      <c r="AF72" s="111"/>
+      <c r="AG72" s="111"/>
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -8054,32 +8057,32 @@
       <c r="AW72" s="2"/>
     </row>
     <row r="73" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="B73" s="146" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="146"/>
+      <c r="B73" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="107"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-      <c r="T73" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="U73" s="139"/>
-      <c r="V73" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="W73" s="88"/>
-      <c r="X73" s="88"/>
-      <c r="Y73" s="88"/>
-      <c r="Z73" s="88"/>
-      <c r="AA73" s="88"/>
-      <c r="AB73" s="88"/>
-      <c r="AC73" s="88"/>
-      <c r="AD73" s="140" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE73" s="140"/>
-      <c r="AF73" s="140"/>
-      <c r="AG73" s="140"/>
+      <c r="T73" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="U73" s="112"/>
+      <c r="V73" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="W73" s="104"/>
+      <c r="X73" s="104"/>
+      <c r="Y73" s="104"/>
+      <c r="Z73" s="104"/>
+      <c r="AA73" s="104"/>
+      <c r="AB73" s="104"/>
+      <c r="AC73" s="104"/>
+      <c r="AD73" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE73" s="113"/>
+      <c r="AF73" s="113"/>
+      <c r="AG73" s="113"/>
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
       <c r="AJ73" s="2"/>
@@ -8099,20 +8102,20 @@
     </row>
     <row r="74" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B74" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="57" t="s">
         <v>31</v>
-      </c>
-      <c r="C74" s="57" t="s">
-        <v>32</v>
       </c>
       <c r="D74" s="58"/>
       <c r="E74" s="59"/>
       <c r="F74" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" s="58"/>
       <c r="H74" s="59"/>
       <c r="I74" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J74" s="58"/>
       <c r="K74" s="58"/>
@@ -8123,26 +8126,26 @@
       <c r="P74" s="59"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
-      <c r="T74" s="143" t="s">
-        <v>86</v>
-      </c>
-      <c r="U74" s="143"/>
-      <c r="V74" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="W74" s="125"/>
-      <c r="X74" s="125"/>
-      <c r="Y74" s="125"/>
-      <c r="Z74" s="125"/>
-      <c r="AA74" s="125"/>
-      <c r="AB74" s="125"/>
-      <c r="AC74" s="125"/>
-      <c r="AD74" s="144" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE74" s="144"/>
-      <c r="AF74" s="144"/>
-      <c r="AG74" s="144"/>
+      <c r="T74" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="U74" s="108"/>
+      <c r="V74" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="W74" s="106"/>
+      <c r="X74" s="106"/>
+      <c r="Y74" s="106"/>
+      <c r="Z74" s="106"/>
+      <c r="AA74" s="106"/>
+      <c r="AB74" s="106"/>
+      <c r="AC74" s="106"/>
+      <c r="AD74" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE74" s="109"/>
+      <c r="AF74" s="109"/>
+      <c r="AG74" s="109"/>
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
       <c r="AJ74" s="2"/>
@@ -8165,12 +8168,12 @@
         <v>1</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D75" s="31"/>
       <c r="E75" s="32"/>
       <c r="F75" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G75" s="31"/>
       <c r="H75" s="32"/>
@@ -8208,12 +8211,12 @@
         <v>2</v>
       </c>
       <c r="C76" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D76" s="55"/>
       <c r="E76" s="56"/>
       <c r="F76" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G76" s="55"/>
       <c r="H76" s="56"/>
@@ -8251,12 +8254,12 @@
         <v>3</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" s="55"/>
       <c r="E77" s="56"/>
       <c r="F77" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G77" s="55"/>
       <c r="H77" s="56"/>
@@ -8293,24 +8296,24 @@
       <c r="B78" s="16">
         <v>4</v>
       </c>
-      <c r="C78" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="116"/>
-      <c r="E78" s="104"/>
-      <c r="F78" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="G78" s="116"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="117"/>
-      <c r="J78" s="118"/>
-      <c r="K78" s="118"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="118"/>
-      <c r="N78" s="118"/>
-      <c r="O78" s="118"/>
-      <c r="P78" s="119"/>
+      <c r="C78" s="122" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="123"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="G78" s="123"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="126"/>
+      <c r="M78" s="126"/>
+      <c r="N78" s="126"/>
+      <c r="O78" s="126"/>
+      <c r="P78" s="127"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
     </row>
@@ -8318,24 +8321,24 @@
       <c r="B79" s="16">
         <v>5</v>
       </c>
-      <c r="C79" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" s="88"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="G79" s="88"/>
-      <c r="H79" s="88"/>
-      <c r="I79" s="89"/>
-      <c r="J79" s="89"/>
-      <c r="K79" s="89"/>
-      <c r="L79" s="89"/>
-      <c r="M79" s="89"/>
-      <c r="N79" s="89"/>
-      <c r="O79" s="89"/>
-      <c r="P79" s="89"/>
+      <c r="C79" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="104"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="100"/>
+      <c r="J79" s="100"/>
+      <c r="K79" s="100"/>
+      <c r="L79" s="100"/>
+      <c r="M79" s="100"/>
+      <c r="N79" s="100"/>
+      <c r="O79" s="100"/>
+      <c r="P79" s="100"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -8344,101 +8347,101 @@
       <c r="B80" s="16">
         <v>6</v>
       </c>
-      <c r="C80" s="88" t="s">
+      <c r="C80" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
+      <c r="F80" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="89"/>
-      <c r="J80" s="89"/>
-      <c r="K80" s="89"/>
-      <c r="L80" s="89"/>
-      <c r="M80" s="89"/>
-      <c r="N80" s="89"/>
-      <c r="O80" s="89"/>
-      <c r="P80" s="89"/>
+      <c r="G80" s="104"/>
+      <c r="H80" s="104"/>
+      <c r="I80" s="100"/>
+      <c r="J80" s="100"/>
+      <c r="K80" s="100"/>
+      <c r="L80" s="100"/>
+      <c r="M80" s="100"/>
+      <c r="N80" s="100"/>
+      <c r="O80" s="100"/>
+      <c r="P80" s="100"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B81" s="18">
         <v>7</v>
       </c>
-      <c r="C81" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="D81" s="125"/>
-      <c r="E81" s="125"/>
-      <c r="F81" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="G81" s="125"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
-      <c r="K81" s="90"/>
-      <c r="L81" s="90"/>
-      <c r="M81" s="90"/>
-      <c r="N81" s="90"/>
-      <c r="O81" s="90"/>
-      <c r="P81" s="90"/>
+      <c r="C81" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="106"/>
+      <c r="E81" s="106"/>
+      <c r="F81" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="106"/>
+      <c r="H81" s="106"/>
+      <c r="I81" s="99"/>
+      <c r="J81" s="99"/>
+      <c r="K81" s="99"/>
+      <c r="L81" s="99"/>
+      <c r="M81" s="99"/>
+      <c r="N81" s="99"/>
+      <c r="O81" s="99"/>
+      <c r="P81" s="99"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="U81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="131"/>
-      <c r="G82" s="131"/>
-      <c r="H82" s="131"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="68"/>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
-      <c r="P82" s="68"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="119"/>
+      <c r="G82" s="119"/>
+      <c r="H82" s="119"/>
+      <c r="I82" s="79"/>
+      <c r="J82" s="79"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
+      <c r="M82" s="79"/>
+      <c r="N82" s="79"/>
+      <c r="O82" s="79"/>
+      <c r="P82" s="79"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
     </row>
     <row r="83" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="131"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="68"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
+      <c r="F83" s="119"/>
+      <c r="G83" s="119"/>
+      <c r="H83" s="119"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
+      <c r="O83" s="79"/>
+      <c r="P83" s="79"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="2:25" x14ac:dyDescent="0.3">
@@ -8446,7 +8449,7 @@
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="U84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="2:25" x14ac:dyDescent="0.3">
@@ -8459,7 +8462,7 @@
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="2:25" x14ac:dyDescent="0.3">
@@ -8467,7 +8470,7 @@
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="U87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="2:25" x14ac:dyDescent="0.3">
@@ -8475,7 +8478,7 @@
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
       <c r="U88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="2:25" x14ac:dyDescent="0.3">
@@ -8489,7 +8492,7 @@
       <c r="O90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="T90" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="2:25" x14ac:dyDescent="0.3">
@@ -8500,7 +8503,7 @@
       <c r="O91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="U91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="2:25" x14ac:dyDescent="0.3">
@@ -8511,7 +8514,7 @@
       <c r="O92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="U92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="2:25" x14ac:dyDescent="0.3">
@@ -8533,7 +8536,7 @@
       <c r="O94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="T94" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="2:25" x14ac:dyDescent="0.3">
@@ -8544,7 +8547,7 @@
       <c r="O95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="U95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.3">
@@ -8568,7 +8571,7 @@
       <c r="O97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="T97" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:48" x14ac:dyDescent="0.3">
@@ -8579,7 +8582,7 @@
       <c r="O98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="U98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:48" x14ac:dyDescent="0.3">
@@ -8590,7 +8593,7 @@
       <c r="O99" s="6"/>
       <c r="Q99" s="6"/>
       <c r="U99" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
@@ -8616,72 +8619,72 @@
       <c r="N103" s="6"/>
     </row>
     <row r="105" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A105" s="64"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="73" t="s">
+      <c r="A105" s="75"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="73" t="s">
+      <c r="E105" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F105" s="73"/>
-      <c r="G105" s="75" t="s">
+      <c r="F105" s="68"/>
+      <c r="G105" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H105" s="76"/>
-      <c r="I105" s="77" t="s">
+      <c r="H105" s="86"/>
+      <c r="I105" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="J105" s="68"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J105" s="73"/>
-      <c r="K105" s="73"/>
-      <c r="L105" s="1" t="s">
+      <c r="M105" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="M105" s="82" t="s">
+      <c r="N105" s="88"/>
+      <c r="O105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N105" s="83"/>
-      <c r="O105" s="1" t="s">
+      <c r="P105" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="P105" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q105" s="73"/>
-      <c r="R105" s="64"/>
-      <c r="S105" s="65"/>
-      <c r="T105" s="66"/>
-      <c r="U105" s="73" t="s">
+      <c r="Q105" s="68"/>
+      <c r="R105" s="75"/>
+      <c r="S105" s="76"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="V105" s="73" t="s">
+      <c r="V105" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="W105" s="73"/>
-      <c r="X105" s="75" t="s">
+      <c r="W105" s="68"/>
+      <c r="X105" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="Y105" s="76"/>
-      <c r="Z105" s="77" t="s">
+      <c r="Y105" s="86"/>
+      <c r="Z105" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA105" s="68"/>
+      <c r="AB105" s="68"/>
+      <c r="AC105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA105" s="73"/>
-      <c r="AB105" s="73"/>
-      <c r="AC105" s="1" t="s">
+      <c r="AD105" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AD105" s="82" t="s">
+      <c r="AE105" s="88"/>
+      <c r="AF105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE105" s="83"/>
-      <c r="AF105" s="1" t="s">
+      <c r="AG105" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AG105" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH105" s="73"/>
+      <c r="AH105" s="68"/>
       <c r="AI105" s="8"/>
       <c r="AJ105" s="8"/>
       <c r="AK105" s="8"/>
@@ -8698,48 +8701,48 @@
       <c r="AV105" s="6"/>
     </row>
     <row r="106" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A106" s="67"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="75"/>
-      <c r="H106" s="76"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="73"/>
-      <c r="K106" s="73"/>
+      <c r="A106" s="78"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="68"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="86"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="68"/>
+      <c r="K106" s="68"/>
       <c r="L106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M106" s="67"/>
+      <c r="N106" s="68"/>
+      <c r="O106" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M106" s="77"/>
-      <c r="N106" s="73"/>
-      <c r="O106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P106" s="77"/>
-      <c r="Q106" s="73"/>
-      <c r="R106" s="67"/>
-      <c r="S106" s="68"/>
-      <c r="T106" s="69"/>
-      <c r="U106" s="73"/>
-      <c r="V106" s="73"/>
-      <c r="W106" s="73"/>
-      <c r="X106" s="75"/>
-      <c r="Y106" s="76"/>
-      <c r="Z106" s="77"/>
-      <c r="AA106" s="73"/>
-      <c r="AB106" s="73"/>
+      <c r="P106" s="67"/>
+      <c r="Q106" s="68"/>
+      <c r="R106" s="78"/>
+      <c r="S106" s="79"/>
+      <c r="T106" s="80"/>
+      <c r="U106" s="68"/>
+      <c r="V106" s="68"/>
+      <c r="W106" s="68"/>
+      <c r="X106" s="85"/>
+      <c r="Y106" s="86"/>
+      <c r="Z106" s="67"/>
+      <c r="AA106" s="68"/>
+      <c r="AB106" s="68"/>
       <c r="AC106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD106" s="67"/>
+      <c r="AE106" s="68"/>
+      <c r="AF106" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD106" s="77"/>
-      <c r="AE106" s="73"/>
-      <c r="AF106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG106" s="77"/>
-      <c r="AH106" s="73"/>
+      <c r="AG106" s="67"/>
+      <c r="AH106" s="68"/>
       <c r="AI106" s="8"/>
       <c r="AJ106" s="8"/>
       <c r="AK106" s="8"/>
@@ -8756,56 +8759,56 @@
       <c r="AV106" s="6"/>
     </row>
     <row r="107" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="70"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="72"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="78" t="s">
+      <c r="A107" s="81"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="84"/>
+      <c r="E107" s="84"/>
+      <c r="F107" s="84"/>
+      <c r="G107" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="70"/>
+      <c r="I107" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H107" s="79"/>
-      <c r="I107" s="80" t="s">
+      <c r="J107" s="72"/>
+      <c r="K107" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J107" s="81"/>
-      <c r="K107" s="78" t="s">
+      <c r="L107" s="70"/>
+      <c r="M107" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L107" s="79"/>
-      <c r="M107" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="N107" s="81"/>
-      <c r="O107" s="81"/>
-      <c r="P107" s="81"/>
-      <c r="Q107" s="81"/>
-      <c r="R107" s="70"/>
-      <c r="S107" s="71"/>
-      <c r="T107" s="72"/>
-      <c r="U107" s="74"/>
-      <c r="V107" s="74"/>
-      <c r="W107" s="74"/>
-      <c r="X107" s="78" t="s">
+      <c r="N107" s="72"/>
+      <c r="O107" s="72"/>
+      <c r="P107" s="72"/>
+      <c r="Q107" s="72"/>
+      <c r="R107" s="81"/>
+      <c r="S107" s="82"/>
+      <c r="T107" s="83"/>
+      <c r="U107" s="84"/>
+      <c r="V107" s="84"/>
+      <c r="W107" s="84"/>
+      <c r="X107" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y107" s="70"/>
+      <c r="Z107" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="Y107" s="79"/>
-      <c r="Z107" s="80" t="s">
+      <c r="AA107" s="72"/>
+      <c r="AB107" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AA107" s="81"/>
-      <c r="AB107" s="78" t="s">
+      <c r="AC107" s="70"/>
+      <c r="AD107" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="AC107" s="79"/>
-      <c r="AD107" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE107" s="81"/>
-      <c r="AF107" s="81"/>
-      <c r="AG107" s="81"/>
-      <c r="AH107" s="81"/>
+      <c r="AE107" s="72"/>
+      <c r="AF107" s="72"/>
+      <c r="AG107" s="72"/>
+      <c r="AH107" s="72"/>
       <c r="AI107" s="8"/>
       <c r="AJ107" s="8"/>
       <c r="AK107" s="8"/>
@@ -8871,7 +8874,7 @@
     </row>
     <row r="110" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="6"/>
@@ -8884,10 +8887,10 @@
     </row>
     <row r="111" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
-      <c r="C111" s="133" t="s">
-        <v>56</v>
-      </c>
-      <c r="D111" s="133"/>
+      <c r="C111" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" s="120"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -8898,13 +8901,13 @@
     <row r="112" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="E112" s="134"/>
-      <c r="F112" s="134"/>
-      <c r="G112" s="134"/>
-      <c r="H112" s="134"/>
+      <c r="D112" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" s="121"/>
+      <c r="F112" s="121"/>
+      <c r="G112" s="121"/>
+      <c r="H112" s="121"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
     </row>
@@ -8921,10 +8924,10 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="7"/>
-      <c r="C114" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="D114" s="133"/>
+      <c r="C114" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" s="120"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -8935,41 +8938,41 @@
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="E115" s="132"/>
-      <c r="F115" s="132"/>
-      <c r="G115" s="132"/>
-      <c r="H115" s="132"/>
+      <c r="D115" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="E115" s="118"/>
+      <c r="F115" s="118"/>
+      <c r="G115" s="118"/>
+      <c r="H115" s="118"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="E116" s="132"/>
-      <c r="F116" s="132"/>
-      <c r="G116" s="132"/>
-      <c r="H116" s="132"/>
-      <c r="I116" s="132"/>
+      <c r="D116" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="E116" s="118"/>
+      <c r="F116" s="118"/>
+      <c r="G116" s="118"/>
+      <c r="H116" s="118"/>
+      <c r="I116" s="118"/>
       <c r="J116" s="6"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="E117" s="132"/>
-      <c r="F117" s="132"/>
-      <c r="G117" s="132"/>
-      <c r="H117" s="132"/>
-      <c r="I117" s="132"/>
-      <c r="J117" s="132"/>
+      <c r="D117" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117" s="118"/>
+      <c r="F117" s="118"/>
+      <c r="G117" s="118"/>
+      <c r="H117" s="118"/>
+      <c r="I117" s="118"/>
+      <c r="J117" s="118"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
@@ -8985,7 +8988,7 @@
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
       <c r="C119" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="21"/>
@@ -9009,7 +9012,7 @@
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
       <c r="C121" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
@@ -9033,7 +9036,7 @@
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="7"/>
       <c r="C123" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123" s="21"/>
       <c r="E123" s="21"/>
@@ -9057,7 +9060,7 @@
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
       <c r="C125" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D125" s="21"/>
       <c r="E125" s="21"/>
@@ -9081,7 +9084,7 @@
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
       <c r="C127" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="21"/>
@@ -9105,7 +9108,7 @@
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="7"/>
       <c r="C129" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D129" s="21"/>
       <c r="E129" s="21"/>
@@ -9142,21 +9145,201 @@
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W66:Z66"/>
+    <mergeCell ref="AA66:AG66"/>
+    <mergeCell ref="AA64:AG64"/>
+    <mergeCell ref="T65:V66"/>
+    <mergeCell ref="T62:V64"/>
+    <mergeCell ref="W64:Z64"/>
+    <mergeCell ref="W65:Z65"/>
+    <mergeCell ref="AA65:AG65"/>
+    <mergeCell ref="W49:AC49"/>
+    <mergeCell ref="W50:AC50"/>
+    <mergeCell ref="W51:AC51"/>
+    <mergeCell ref="W52:AC52"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:AC46"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="W36:AC36"/>
+    <mergeCell ref="W35:AC35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="W40:AC40"/>
+    <mergeCell ref="W42:AC42"/>
+    <mergeCell ref="W41:AC41"/>
+    <mergeCell ref="W43:AC43"/>
+    <mergeCell ref="W44:AC44"/>
+    <mergeCell ref="W45:AC45"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="W39:AC39"/>
+    <mergeCell ref="W37:AC37"/>
+    <mergeCell ref="W38:AC38"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:AC34"/>
+    <mergeCell ref="R105:T107"/>
+    <mergeCell ref="U105:U107"/>
+    <mergeCell ref="V105:W107"/>
+    <mergeCell ref="X105:Y106"/>
+    <mergeCell ref="Z105:AB106"/>
+    <mergeCell ref="AD105:AE105"/>
+    <mergeCell ref="AG105:AH105"/>
+    <mergeCell ref="AD106:AE106"/>
+    <mergeCell ref="AG106:AH106"/>
+    <mergeCell ref="X107:Y107"/>
+    <mergeCell ref="Z107:AA107"/>
+    <mergeCell ref="AB107:AC107"/>
+    <mergeCell ref="AD107:AH107"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="R55:T57"/>
+    <mergeCell ref="U55:U57"/>
+    <mergeCell ref="V55:W57"/>
+    <mergeCell ref="X55:Y56"/>
+    <mergeCell ref="Z55:AB56"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AB2"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="I78:P78"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="I81:P81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:P82"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:P79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="I80:P80"/>
+    <mergeCell ref="D116:I116"/>
+    <mergeCell ref="D117:J117"/>
+    <mergeCell ref="A105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:F107"/>
+    <mergeCell ref="G105:H106"/>
+    <mergeCell ref="I105:K106"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="I83:P83"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="M107:Q107"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="V72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="V73:AC73"/>
+    <mergeCell ref="AD73:AG73"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:AG61"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="AA62:AG62"/>
+    <mergeCell ref="W63:Z63"/>
+    <mergeCell ref="AA63:AG63"/>
     <mergeCell ref="T74:U74"/>
     <mergeCell ref="V74:AC74"/>
     <mergeCell ref="AD74:AG74"/>
@@ -9181,76 +9364,21 @@
     <mergeCell ref="P55:Q55"/>
     <mergeCell ref="M56:N56"/>
     <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="V72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="V73:AC73"/>
-    <mergeCell ref="AD73:AG73"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:AG61"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="AA62:AG62"/>
-    <mergeCell ref="W63:Z63"/>
-    <mergeCell ref="AA63:AG63"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="D117:J117"/>
-    <mergeCell ref="A105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:F107"/>
-    <mergeCell ref="G105:H106"/>
-    <mergeCell ref="I105:K106"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="I83:P83"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="M107:Q107"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="I81:P81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="I82:P82"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="I79:P79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="I80:P80"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="I78:P78"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="E62:F62"/>
@@ -9260,131 +9388,6 @@
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="K63:L63"/>
     <mergeCell ref="M63:P63"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="R55:T57"/>
-    <mergeCell ref="U55:U57"/>
-    <mergeCell ref="V55:W57"/>
-    <mergeCell ref="X55:Y56"/>
-    <mergeCell ref="Z55:AB56"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AB2"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="R105:T107"/>
-    <mergeCell ref="U105:U107"/>
-    <mergeCell ref="V105:W107"/>
-    <mergeCell ref="X105:Y106"/>
-    <mergeCell ref="Z105:AB106"/>
-    <mergeCell ref="AD105:AE105"/>
-    <mergeCell ref="AG105:AH105"/>
-    <mergeCell ref="AD106:AE106"/>
-    <mergeCell ref="AG106:AH106"/>
-    <mergeCell ref="X107:Y107"/>
-    <mergeCell ref="Z107:AA107"/>
-    <mergeCell ref="AB107:AC107"/>
-    <mergeCell ref="AD107:AH107"/>
-    <mergeCell ref="W40:AC40"/>
-    <mergeCell ref="W42:AC42"/>
-    <mergeCell ref="W41:AC41"/>
-    <mergeCell ref="W43:AC43"/>
-    <mergeCell ref="W44:AC44"/>
-    <mergeCell ref="W45:AC45"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="W39:AC39"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="W37:AC37"/>
-    <mergeCell ref="W38:AC38"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:AC34"/>
-    <mergeCell ref="AD34:AG34"/>
-    <mergeCell ref="W36:AC36"/>
-    <mergeCell ref="W35:AC35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W66:Z66"/>
-    <mergeCell ref="AA66:AG66"/>
-    <mergeCell ref="AA64:AG64"/>
-    <mergeCell ref="T65:V66"/>
-    <mergeCell ref="T62:V64"/>
-    <mergeCell ref="W64:Z64"/>
-    <mergeCell ref="W65:Z65"/>
-    <mergeCell ref="AA65:AG65"/>
-    <mergeCell ref="W49:AC49"/>
-    <mergeCell ref="W50:AC50"/>
-    <mergeCell ref="W51:AC51"/>
-    <mergeCell ref="W52:AC52"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="W46:AC46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
